--- a/sample_output/1401ME31.xlsx
+++ b/sample_output/1401ME31.xlsx
@@ -52,7 +52,7 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>-2.0</t>
+    <t>0.0</t>
   </si>
   <si>
     <t>Not Attempt</t>
@@ -73,7 +73,7 @@
     <t>3.0</t>
   </si>
   <si>
-    <t>4.0</t>
+    <t>10.0</t>
   </si>
   <si>
     <t>Helen Matthews</t>
@@ -82,10 +82,10 @@
     <t>1401ME31</t>
   </si>
   <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>10.0/112.0</t>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>30.0/280.0</t>
   </si>
   <si>
     <t>Student Ans</t>
